--- a/data/excel_files/월_민간소비증감율.xlsx
+++ b/data/excel_files/월_민간소비증감율.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baegseungho/건국대학교/2020-2/졸업프로젝트/데이터/최종정제/excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{083E988C-72DC-B14B-9351-E31711355CE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E2169A-9BA4-4044-A67F-0DCF6048C9D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2760" windowWidth="27900" windowHeight="16940" xr2:uid="{F22733E1-95AF-8841-9729-3DDF7FAAA4D9}"/>
+    <workbookView xWindow="19440" yWindow="3240" windowWidth="27900" windowHeight="16940" xr2:uid="{F22733E1-95AF-8841-9729-3DDF7FAAA4D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>날짜</t>
   </si>
@@ -42,353 +42,11 @@
     <t>전년대비증감율</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>-5.3</t>
-  </si>
-  <si>
-    <t>-5.1</t>
-  </si>
-  <si>
-    <t>-3.3</t>
-  </si>
-  <si>
-    <t>-3.1</t>
-  </si>
-  <si>
-    <t>-4.6</t>
-  </si>
-  <si>
-    <t>-5.9</t>
-  </si>
-  <si>
-    <t>-3.2</t>
-  </si>
-  <si>
-    <t>-3.4</t>
-  </si>
-  <si>
-    <t>-2.6</t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>-0.4</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>-1.1</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>-3.7</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>2.7</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>10.7</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>10.6</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>-0.7</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>-1.8</t>
-  </si>
-  <si>
-    <t>-4.8</t>
-  </si>
-  <si>
-    <t>-2.9</t>
-  </si>
-  <si>
-    <t>-5.7</t>
-  </si>
-  <si>
-    <t>-4.9</t>
-  </si>
-  <si>
-    <t>-4.2</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>12.8</t>
-  </si>
-  <si>
-    <t>6.7</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>-2.8</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>-1.4</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>-2.3</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>5.8</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>-1.9</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>-2.4</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>-2.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -450,7 +108,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B677E945-5B0F-D641-B979-02D7519C8904}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B215"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B216" sqref="B216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -787,1712 +445,1722 @@
       <c r="A2" s="1">
         <v>37622</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>7.8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>37653</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>37681</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>-5.0999999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>37712</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="2">
+        <v>-5.3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>37742</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="2">
+        <v>-3.3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>37773</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="2">
+        <v>-3.1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>37803</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="2">
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>37834</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="2">
+        <v>-5.9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>37865</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="2">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>37895</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+      <c r="B11" s="2">
+        <v>-3.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>37926</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
+      <c r="B12" s="2">
+        <v>-3.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>37956</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
+      <c r="B13" s="2">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>37987</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
+      <c r="B14" s="2">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>38018</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
+      <c r="B15" s="2">
+        <v>3.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>38047</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
+      <c r="B16" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>38078</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
+      <c r="B17" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>38108</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
+      <c r="B18" s="2">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>38139</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
+      <c r="B19" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>38169</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>15</v>
+      <c r="B20" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>38200</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>18</v>
+      <c r="B21" s="2">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>38231</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>19</v>
+      <c r="B22" s="2">
+        <v>1.7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>38261</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>20</v>
+      <c r="B23" s="2">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>38292</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>21</v>
+      <c r="B24" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>38322</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>22</v>
+      <c r="B25" s="2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>38353</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
+      <c r="B26" s="2">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>38384</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>24</v>
+      <c r="B27" s="2">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>38412</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>25</v>
+      <c r="B28" s="2">
+        <v>5.3</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>38443</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>26</v>
+      <c r="B29" s="2">
+        <v>2.7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>38473</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
+      <c r="B30" s="2">
+        <v>3.3</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>38504</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>28</v>
+      <c r="B31" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>38534</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>13</v>
+      <c r="B32" s="2">
+        <v>3.2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>38565</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>29</v>
+      <c r="B33" s="2">
+        <v>5.9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>38596</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>15</v>
+      <c r="B34" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>38626</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>30</v>
+      <c r="B35" s="2">
+        <v>4.2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>38657</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>31</v>
+      <c r="B36" s="2">
+        <v>7.7</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>38687</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>32</v>
+      <c r="B37" s="2">
+        <v>11.7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>38718</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>33</v>
+      <c r="B38" s="2">
+        <v>10.7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>38749</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
+      <c r="B39" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38777</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>35</v>
+      <c r="B40" s="2">
+        <v>3.9</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>38808</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
+      <c r="B41" s="2">
+        <v>4.7</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>38838</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>37</v>
+      <c r="B42" s="2">
+        <v>5.4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>38869</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
+      <c r="B43" s="2">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>38899</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
+      <c r="B44" s="2">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>38930</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
+      <c r="B45" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>38961</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>25</v>
+      <c r="B46" s="2">
+        <v>5.3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>38991</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>40</v>
+      <c r="B47" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>39022</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>41</v>
+      <c r="B48" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>39052</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>42</v>
+      <c r="B49" s="2">
+        <v>1.8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>39083</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>14</v>
+      <c r="B50" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>39114</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>43</v>
+      <c r="B51" s="2">
+        <v>10.6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>39142</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>44</v>
+      <c r="B52" s="2">
+        <v>6.2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>39173</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>40</v>
+      <c r="B53" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>39203</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>45</v>
+      <c r="B54" s="2">
+        <v>5.7</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>39234</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>35</v>
+      <c r="B55" s="2">
+        <v>3.9</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>39264</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>46</v>
+      <c r="B56" s="2">
+        <v>9.1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>39295</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>47</v>
+      <c r="B57" s="2">
+        <v>6.1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>39326</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>48</v>
+      <c r="B58" s="2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>39356</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>49</v>
+      <c r="B59" s="2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>39387</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>30</v>
+      <c r="B60" s="2">
+        <v>4.2</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>39417</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>50</v>
+      <c r="B61" s="2">
+        <v>0.7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>39448</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>37</v>
+      <c r="B62" s="2">
+        <v>5.4</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>39479</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>51</v>
+      <c r="B63" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>39508</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>52</v>
+      <c r="B64" s="2">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>39539</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>53</v>
+      <c r="B65" s="2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>39569</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>27</v>
+      <c r="B66" s="2">
+        <v>3.3</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>39600</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>54</v>
+      <c r="B67" s="2">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>39630</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>30</v>
+      <c r="B68" s="2">
+        <v>4.2</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>39661</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>55</v>
+      <c r="B69" s="2">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>39692</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>56</v>
+      <c r="B70" s="2">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>39722</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>5</v>
+      <c r="B71" s="2">
+        <v>-3.3</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>39753</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>7</v>
+      <c r="B72" s="2">
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>39783</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>57</v>
+      <c r="B73" s="2">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>39814</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>58</v>
+      <c r="B74" s="2">
+        <v>-2.9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>39845</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>59</v>
+      <c r="B75" s="2">
+        <v>-5.7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>39873</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>60</v>
+      <c r="B76" s="2">
+        <v>-4.9000000000000004</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>39904</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>61</v>
+      <c r="B77" s="2">
+        <v>-4.2</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>39934</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>19</v>
+      <c r="B78" s="2">
+        <v>1.7</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>39965</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>62</v>
+      <c r="B79" s="2">
+        <v>7.6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>39995</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>63</v>
+      <c r="B80" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>40026</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>64</v>
+      <c r="B81" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>40057</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>49</v>
+      <c r="B82" s="2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>40087</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>65</v>
+      <c r="B83" s="2">
+        <v>9.9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>40118</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>66</v>
+      <c r="B84" s="2">
+        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>40148</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>67</v>
+      <c r="B85" s="2">
+        <v>12.8</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>40179</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>68</v>
+      <c r="B86" s="2">
+        <v>6.7</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>40210</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>67</v>
+      <c r="B87" s="2">
+        <v>12.8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>40238</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>69</v>
+      <c r="B88" s="2">
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>40269</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>70</v>
+      <c r="B89" s="2">
+        <v>7.3</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>40299</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>28</v>
+      <c r="B90" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>40330</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>22</v>
+      <c r="B91" s="2">
+        <v>3.8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>40360</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>71</v>
+      <c r="B92" s="2">
+        <v>8.9</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>40391</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>72</v>
+      <c r="B93" s="2">
+        <v>9.4</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>40422</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>73</v>
+      <c r="B94" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>40452</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>74</v>
+      <c r="B95" s="2">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>40483</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>75</v>
+      <c r="B96" s="2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
         <v>40513</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>17</v>
+      <c r="B97" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
         <v>40544</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>43</v>
+      <c r="B98" s="2">
+        <v>10.6</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
         <v>40575</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>76</v>
+      <c r="B99" s="2">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
         <v>40603</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>77</v>
+      <c r="B100" s="2">
+        <v>5.2</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
         <v>40634</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>77</v>
+      <c r="B101" s="2">
+        <v>5.2</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
         <v>40664</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>47</v>
+      <c r="B102" s="2">
+        <v>6.1</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
         <v>40695</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>47</v>
+      <c r="B103" s="2">
+        <v>6.1</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
         <v>40725</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>74</v>
+      <c r="B104" s="2">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
         <v>40756</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>78</v>
+      <c r="B105" s="2">
+        <v>4.9000000000000004</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
         <v>40787</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>13</v>
+      <c r="B106" s="2">
+        <v>3.2</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
         <v>40817</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>27</v>
+      <c r="B107" s="2">
+        <v>3.3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
         <v>40848</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>42</v>
+      <c r="B108" s="2">
+        <v>1.8</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
         <v>40878</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>26</v>
+      <c r="B109" s="2">
+        <v>2.7</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
         <v>40909</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>79</v>
+      <c r="B110" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
         <v>40940</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>80</v>
+      <c r="B111" s="2">
+        <v>5.5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
         <v>40969</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>63</v>
+      <c r="B112" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>41000</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>21</v>
+      <c r="B113" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>41030</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>81</v>
+      <c r="B114" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>41061</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>63</v>
+      <c r="B115" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>41091</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>28</v>
+      <c r="B116" s="2">
+        <v>3.6</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>41122</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>63</v>
+      <c r="B117" s="2">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>41153</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>82</v>
+      <c r="B118" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>41183</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>83</v>
+      <c r="B119" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>41214</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>40</v>
+      <c r="B120" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>41244</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>79</v>
+      <c r="B121" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>41275</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>84</v>
+      <c r="B122" s="2">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>41306</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>85</v>
+      <c r="B123" s="2">
+        <v>1.6</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>41334</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>86</v>
+      <c r="B124" s="2">
+        <v>2.1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>41365</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>55</v>
+      <c r="B125" s="2">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>41395</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>87</v>
+      <c r="B126" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>41426</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>87</v>
+      <c r="B127" s="2">
+        <v>0.6</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>41456</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>50</v>
+      <c r="B128" s="2">
+        <v>0.7</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>41487</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>79</v>
+      <c r="B129" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>41518</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>88</v>
+      <c r="B130" s="2">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>41548</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>79</v>
+      <c r="B131" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>41579</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>15</v>
+      <c r="B132" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>41609</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>89</v>
+      <c r="B133" s="2">
+        <v>0.1</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>41640</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>80</v>
+      <c r="B134" s="2">
+        <v>5.5</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>41671</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>20</v>
+      <c r="B135" s="2">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>41699</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>55</v>
+      <c r="B136" s="2">
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>41730</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>50</v>
+      <c r="B137" s="2">
+        <v>0.7</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>41760</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>90</v>
+      <c r="B138" s="2">
+        <v>1.4</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>41791</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>90</v>
+      <c r="B139" s="2">
+        <v>1.4</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>41821</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>15</v>
+      <c r="B140" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>41852</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>41</v>
+      <c r="B141" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>41883</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>42</v>
+      <c r="B142" s="2">
+        <v>1.8</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>41913</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>21</v>
+      <c r="B143" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>41944</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>15</v>
+      <c r="B144" s="2">
+        <v>1.3</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>41974</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>77</v>
+      <c r="B145" s="2">
+        <v>5.2</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
         <v>42005</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>91</v>
+      <c r="B146" s="2">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
         <v>42036</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>92</v>
+      <c r="B147" s="2">
+        <v>6.4</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
         <v>42064</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>51</v>
+      <c r="B148" s="2">
+        <v>3.5</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
         <v>42095</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>53</v>
+      <c r="B149" s="2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
         <v>42125</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>30</v>
+      <c r="B150" s="2">
+        <v>4.2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
         <v>42156</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>34</v>
+      <c r="B151" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
         <v>42186</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>93</v>
+      <c r="B152" s="2">
+        <v>2.4</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
         <v>42217</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>86</v>
+      <c r="B153" s="2">
+        <v>2.1</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
         <v>42248</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>44</v>
+      <c r="B154" s="2">
+        <v>6.2</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
         <v>42278</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>94</v>
+      <c r="B155" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
         <v>42309</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>44</v>
+      <c r="B156" s="2">
+        <v>6.2</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
         <v>42339</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>74</v>
+      <c r="B157" s="2">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
         <v>42370</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>45</v>
+      <c r="B158" s="2">
+        <v>5.7</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
         <v>42401</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>82</v>
+      <c r="B159" s="2">
+        <v>2.9</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
         <v>42430</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>25</v>
+      <c r="B160" s="2">
+        <v>5.3</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
         <v>42461</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>95</v>
+      <c r="B161" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
         <v>42491</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>52</v>
+      <c r="B162" s="2">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
         <v>42522</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>96</v>
+      <c r="B163" s="2">
+        <v>8.8000000000000007</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
         <v>42552</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>17</v>
+      <c r="B164" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
         <v>42583</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>37</v>
+      <c r="B165" s="2">
+        <v>5.4</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
         <v>42614</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>97</v>
+      <c r="B166" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
         <v>42644</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>79</v>
+      <c r="B167" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
         <v>42675</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>98</v>
+      <c r="B168" s="2">
+        <v>2.6</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
         <v>42705</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>79</v>
+      <c r="B169" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
         <v>42736</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>35</v>
+      <c r="B170" s="2">
+        <v>3.9</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
         <v>42767</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>99</v>
+      <c r="B171" s="2">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
         <v>42795</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>34</v>
+      <c r="B172" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
         <v>42826</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>100</v>
+      <c r="B173" s="2">
+        <v>1.9</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
         <v>42856</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>21</v>
+      <c r="B174" s="2">
+        <v>0.4</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
         <v>42887</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>101</v>
+      <c r="B175" s="2">
+        <v>0.8</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
         <v>42917</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>81</v>
+      <c r="B176" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
         <v>42948</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>14</v>
+      <c r="B177" s="2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
         <v>42979</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>75</v>
+      <c r="B178" s="2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
         <v>43009</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>39</v>
+      <c r="B179" s="2">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
         <v>43040</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>25</v>
+      <c r="B180" s="2">
+        <v>5.3</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
         <v>43070</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>90</v>
+      <c r="B181" s="2">
+        <v>1.4</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
         <v>43101</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>100</v>
+      <c r="B182" s="2">
+        <v>1.9</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
         <v>43132</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>49</v>
+      <c r="B183" s="2">
+        <v>6.8</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
         <v>43160</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>102</v>
+      <c r="B184" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
         <v>43191</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>103</v>
+      <c r="B185" s="2">
+        <v>5.8</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
         <v>43221</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>104</v>
+      <c r="B186" s="2">
+        <v>4.8</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
         <v>43252</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>17</v>
+      <c r="B187" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
         <v>43282</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>105</v>
+      <c r="B188" s="2">
+        <v>5.6</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
         <v>43313</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>105</v>
+      <c r="B189" s="2">
+        <v>5.6</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
         <v>43344</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>64</v>
+      <c r="B190" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
         <v>43374</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>77</v>
+      <c r="B191" s="2">
+        <v>5.2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
         <v>43405</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>34</v>
+      <c r="B192" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
         <v>43435</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>41</v>
+      <c r="B193" s="2">
+        <v>3.1</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
         <v>43466</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>17</v>
+      <c r="B194" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
         <v>43497</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>106</v>
+      <c r="B195" s="2">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
         <v>43525</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>93</v>
+      <c r="B196" s="2">
+        <v>2.4</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
         <v>43556</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>90</v>
+      <c r="B197" s="2">
+        <v>1.4</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
         <v>43586</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>95</v>
+      <c r="B198" s="2">
+        <v>3.4</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
         <v>43617</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>107</v>
+      <c r="B199" s="2">
+        <v>1.2</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
         <v>43647</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>108</v>
+      <c r="B200" s="2">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
         <v>43678</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>74</v>
+      <c r="B201" s="2">
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
         <v>43709</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>109</v>
+      <c r="B202" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
         <v>43739</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>100</v>
+      <c r="B203" s="2">
+        <v>1.9</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
         <v>43770</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>110</v>
+      <c r="B204" s="2">
+        <v>3.7</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
         <v>43800</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>73</v>
+      <c r="B205" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
         <v>43831</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>42</v>
+      <c r="B206" s="2">
+        <v>1.8</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
         <v>43862</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>111</v>
+      <c r="B207" s="2">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
         <v>43891</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>112</v>
+      <c r="B208" s="2">
+        <v>-8</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
         <v>43922</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>113</v>
+      <c r="B209" s="2">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
         <v>43952</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>19</v>
+      <c r="B210" s="2">
+        <v>1.7</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
         <v>43983</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>53</v>
+      <c r="B211" s="2">
+        <v>6.3</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
         <v>44013</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>64</v>
+      <c r="B212" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
         <v>44044</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>114</v>
+      <c r="B213" s="2">
+        <v>0.3</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
         <v>44075</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>17</v>
+      <c r="B214" s="2">
+        <v>4.3</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
         <v>44105</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>99</v>
+      <c r="B215" s="2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>44136</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>44166</v>
       </c>
     </row>
   </sheetData>
